--- a/VL.Research/XMLConfig/FYPT_PregnantInfo/列表.xlsx
+++ b/VL.Research/XMLConfig/FYPT_PregnantInfo/列表.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -97,98 +97,106 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,9 +218,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,21 +240,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -256,12 +256,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -274,7 +364,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,49 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,91 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +455,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -462,45 +477,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,16 +496,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -552,16 +528,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,138 +570,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1030,7 +1031,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28333333333333" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1041,53 +1042,53 @@
     <col min="5" max="16" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:16">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/VL.Research/XMLConfig/FYPT_PregnantInfo/列表.xlsx
+++ b/VL.Research/XMLConfig/FYPT_PregnantInfo/列表.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -97,9 +97,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,38 +174,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,51 +188,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,34 +219,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -262,43 +262,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,115 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,11 +472,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,42 +544,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,8 +1030,8 @@
   <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28333333333333" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="2" customFormat="1" spans="1:16">
       <c r="A2" t="str">
-        <f>"Loop1000_Data_"&amp;A1</f>
-        <v>Loop1000_Data_行号</v>
+        <f>"@Loop1000_Data_"&amp;A1</f>
+        <v>@Loop1000_Data_行号</v>
       </c>
       <c r="B2" t="str">
-        <f>"Loop1000_Data_"&amp;B1</f>
-        <v>Loop1000_Data_保健册号</v>
+        <f>"@Loop1000_Data_"&amp;B1</f>
+        <v>@Loop1000_Data_保健册号</v>
       </c>
       <c r="C2" t="str">
-        <f>"Loop1000_Data_"&amp;C1</f>
-        <v>Loop1000_Data_孕妇姓名</v>
+        <f>"@Loop1000_Data_"&amp;C1</f>
+        <v>@Loop1000_Data_孕妇姓名</v>
       </c>
       <c r="D2" t="str">
         <f>"@Loop1000_Data_"&amp;D1</f>
